--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Vietcom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>Nạp lạ FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180925</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033791109</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
   </si>
 </sst>
 </file>
@@ -485,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -671,9 +692,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1063,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1144,99 +1162,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,7 +1280,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1285,14 +1303,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="67" t="s">
+      <c r="T6" s="63"/>
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1319,7 +1337,7 @@
       <c r="J7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1342,12 +1360,12 @@
         <v>75</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="68"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1367,7 +1385,9 @@
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="I8" s="58" t="s">
         <v>68</v>
       </c>
@@ -1377,28 +1397,32 @@
       <c r="K8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="M8" s="40" t="s">
         <v>76</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1446,12 +1470,12 @@
         <v>23</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="68"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1472,23 +1496,39 @@
         <v>64</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="68"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1509,23 +1549,39 @@
         <v>64</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="58"/>
+      <c r="I11" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="68"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1546,25 +1602,39 @@
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="67" t="s">
+      <c r="T12" s="63"/>
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1612,12 +1682,12 @@
         <v>24</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="68"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1667,12 +1737,12 @@
         <v>80</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="68"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1723,11 +1793,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1748,23 +1818,39 @@
         <v>64</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1785,21 +1871,39 @@
         <v>64</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1827,13 +1931,25 @@
       <c r="K18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -1863,7 +1979,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1899,7 +2015,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1931,7 +2047,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1963,7 +2079,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2044,7 +2160,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="64" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2272,7 +2388,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2368,7 +2484,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2432,7 +2548,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2785,7 +2901,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -3072,43 +3188,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3153,58 +3269,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3229,23 +3345,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,7 +3387,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3302,7 +3418,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3331,7 +3447,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3360,7 +3476,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3389,7 +3505,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3418,7 +3534,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3447,7 +3563,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3478,7 +3594,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3507,7 +3623,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3652,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3565,7 +3681,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Vietcom.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>22/11/21</t>
   </si>
 </sst>
 </file>
@@ -703,6 +706,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,31 +742,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,43 +1084,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1162,58 +1165,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1241,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,7 +1267,9 @@
       <c r="B6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1309,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1319,7 +1324,9 @@
       <c r="B7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1361,7 +1368,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1374,7 +1381,9 @@
       <c r="B8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1418,7 +1427,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1440,9 @@
       <c r="B9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1471,7 +1482,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1484,7 +1495,9 @@
       <c r="B10" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1524,7 +1537,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1550,9 @@
       <c r="B11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1577,7 +1592,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1605,9 @@
       <c r="B12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1645,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1643,7 +1660,9 @@
       <c r="B13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1702,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1715,9 @@
       <c r="B14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1759,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1772,9 @@
       <c r="B15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1816,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1829,9 @@
       <c r="B16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +1871,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +1884,9 @@
       <c r="B17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1939,9 @@
       <c r="B18" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -3127,6 +3156,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3138,13 +3174,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3188,43 +3217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3269,58 +3298,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3345,23 +3374,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,7 +3416,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3418,7 +3447,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3447,7 +3476,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3476,7 +3505,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3534,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3563,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3563,7 +3592,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3594,7 +3623,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3623,7 +3652,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3652,7 +3681,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3710,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4912,13 +4941,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4930,6 +4952,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
